--- a/target/test-classes/Testdata/TestData.xlsx
+++ b/target/test-classes/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Brand</t>
   </si>
@@ -389,7 +389,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
